--- a/uploads/bank_stmt/bank_stmt_format.xlsx
+++ b/uploads/bank_stmt/bank_stmt_format.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$50</definedName>
     <definedName name="AriyalurList">#REF!</definedName>
     <definedName name="Bhuvanagiri">#REF!</definedName>
     <definedName name="BryanList">#REF!</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -88,58 +89,638 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>0000316479469475</t>
-  </si>
-  <si>
-    <t>0000353048295712</t>
-  </si>
-  <si>
-    <t>0000353144612550</t>
-  </si>
-  <si>
-    <t>0000353339205430</t>
-  </si>
-  <si>
-    <t>0000316809561121</t>
-  </si>
-  <si>
-    <t>0000316927310713</t>
-  </si>
-  <si>
     <t>Narration</t>
   </si>
   <si>
-    <t>13/06/23</t>
-  </si>
-  <si>
-    <t>14/06/23</t>
-  </si>
-  <si>
-    <t>16/06/23</t>
-  </si>
-  <si>
-    <t>17/06/23</t>
-  </si>
-  <si>
-    <t>18/06/23</t>
-  </si>
-  <si>
-    <t>UPI-RABI JEROME-RABIJEROME@YBL-KVBL0001645-316479469475-UPI</t>
-  </si>
-  <si>
-    <t>UPI-LOURDS RICHARD JEEVI-8838819752@PAYTM-PYTM0123456-353048295712-NA</t>
-  </si>
-  <si>
-    <t>UPI-LOURDS RICHARD JEEVI-8838819752@PAYTM-PYTM0123456-353144612550-NA</t>
-  </si>
-  <si>
-    <t>UPI-IRCTC UTS-PAYTM-8796946@PAYTM-PYTM0123456-353339205430-OID806160394255456</t>
-  </si>
-  <si>
-    <t>UPI-SUBRAMANI S-Q459460511@YBL-YESB0YBLUPI-316809561121-NA</t>
-  </si>
-  <si>
-    <t>UPI-EURONETGPAY-EURONETGPAY.PAY@ICICI-ICIC0DC0099-316927310713-UPI</t>
+    <t>Money Received using UPI
+Received from: ANITHA
+VPA: sanitha489-2@okhdfcbank
+Transaction ID: S16511698
+Reference Number: 209194580335</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: A ARUL  SELVARAJ
+VPA: 8075989903848@paytm
+Transaction ID: S20204699
+Reference Number: 209206920317</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: MS MARIA SELVA JEELIA
+VPA: jeeliag65943@okhdfcbank
+Transaction ID: S34911462
+Reference Number: 209212036409</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: MS MARIA SELVA JEELIA
+VPA: jeeliag65943@okhdfcbank
+Transaction ID: S69136903
+Reference Number: 209446344493</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: MS MARIA SELVA JEELIA
+VPA: jeeliag65943@okhdfcbank
+Transaction ID: S92274716
+Reference Number: 209569433948</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: SYED MOHAMMED AZHAR
+VPA: 7373395467@paytm
+Transaction ID: S94366133
+Reference Number: 209581586510</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: MS MARIA SELVA JEELIA
+VPA: jeeliag65943@okhdfcbank
+Transaction ID: S14451500
+Reference Number: 209690151994</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: MS MARIA SELVA JEELIA
+VPA: jeeliag65943@okhdfcbank
+Transaction ID: S31976896
+Reference Number: 209706263000</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: MS MARIA SELVA JEELIA
+VPA: jeeliag65943@okhdfcbank
+Transaction ID: S53248850
+Reference Number: 209826819016</t>
+  </si>
+  <si>
+    <t>Refund for online payment
+Transaction ID : S70459735
+Reference No : 209820092779
+Money added back to your account as refund of debit card online transaction</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: MS MARIA SELVA JEELIA
+VPA: jeeliag65943@okhdfcbank
+Transaction ID: S99222924
+Reference Number: 210170251355</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: A ARUL  SELVARAJ
+VPA: 8075989903848@paytm
+Transaction ID: S6404868
+Reference Number: 210146679678</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: ANITHA S
+VPA: sanitha489-1@okicici
+Transaction ID: S51407563
+Reference Number: 210320338222</t>
+  </si>
+  <si>
+    <t>Money Received using UPI
+Received from: ANITHA S
+VPA: sanitha489-1@okicici
+Transaction ID: S55833615
+Reference Number: 210484456091</t>
+  </si>
+  <si>
+    <t>209194580335</t>
+  </si>
+  <si>
+    <t>209206920317</t>
+  </si>
+  <si>
+    <t>209212036409</t>
+  </si>
+  <si>
+    <t>209446344493</t>
+  </si>
+  <si>
+    <t>209569433948</t>
+  </si>
+  <si>
+    <t>209581586510</t>
+  </si>
+  <si>
+    <t>209690151994</t>
+  </si>
+  <si>
+    <t>209706263000</t>
+  </si>
+  <si>
+    <t>209826819016</t>
+  </si>
+  <si>
+    <t>209820092779</t>
+  </si>
+  <si>
+    <t>210170251355</t>
+  </si>
+  <si>
+    <t>210146679678</t>
+  </si>
+  <si>
+    <t>210320338222</t>
+  </si>
+  <si>
+    <t>210484456091</t>
+  </si>
+  <si>
+    <t>102.66</t>
+  </si>
+  <si>
+    <t>7034.66</t>
+  </si>
+  <si>
+    <t>473.66</t>
+  </si>
+  <si>
+    <t>650.66</t>
+  </si>
+  <si>
+    <t>435.66</t>
+  </si>
+  <si>
+    <t>61.53</t>
+  </si>
+  <si>
+    <t>56.53</t>
+  </si>
+  <si>
+    <t>51.53</t>
+  </si>
+  <si>
+    <t>600.53</t>
+  </si>
+  <si>
+    <t>106.53</t>
+  </si>
+  <si>
+    <t>36.53</t>
+  </si>
+  <si>
+    <t>356.53</t>
+  </si>
+  <si>
+    <t>67.53</t>
+  </si>
+  <si>
+    <t>Amount Debited
+Transaction ID : M576817</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Add Money to Wallet
+From Account Number 918838819752
+Transaction ID : M7323877</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Add Money to Wallet
+From Account Number 918838819752
+Transaction ID : M7377286</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: Whizdm Innovations Pvt Ltd
+VPA: whizdminnovationspvtltd.rzp@sbi
+Transaction ID: S20603859
+Reference Number: 209207361785</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Paytm Financial Services
+From Account Number 918838819752
+Transaction ID : M1006834</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Add Money to Wallet
+From Account Number 918838819752
+Transaction ID : M3859975</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: Sapphire Toys P Ltd
+VPA: SAPPHIRETOYSPLTD.28223695@hdfcbank
+Transaction ID: S35023127
+Reference Number: 209266013362</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: Sapphire Toys P Ltd
+VPA: SAPPHIRETOYSPLTD.28223695@hdfcbank
+Transaction ID: S35040670
+Reference Number: 209266084388</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: ANITHA S
+VPA: sanitha489-1@okicici
+Transaction ID: S35444734
+Reference Number: 209233997070</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Add Money to Wallet
+From Account Number 918838819752
+Transaction ID : M2959819</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Sunitha
+From Account Number 918838819752
+Transaction ID : M2970033</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: Mr Devaraju M Mallegowda
+VPA: 9448209454@ybl
+Transaction ID: S70100138
+Reference Number: 209457225159</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at GANPATH M
+From Account Number 918838819752
+Transaction ID : M6718237</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: Zomato Ltd
+VPA: zomato-order@paytm
+Transaction ID: S92305149
+Reference Number: 209573064749</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at GANPATH M
+From Account Number 918838819752
+Transaction ID : M6767680</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at GANPATH M
+From Account Number 918838819752
+Transaction ID : M6094968</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at GANPATH M
+From Account Number 918838819752
+Transaction ID : M6101951</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at NAVAS C K
+From Account Number 918838819752
+Transaction ID : M6255340</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Add Money to Wallet
+From Account Number 918838819752
+Transaction ID : M3541998</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: Roppen Transportation Service Pvt Ltd
+VPA: roppentransportationservicepvtltd.rzp@sbi
+Transaction ID: S32353713
+Reference Number: 209760330257</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Add Money to Wallet
+From Account Number 918838819752
+Transaction ID : M1589026</t>
+  </si>
+  <si>
+    <t>Paid online using debit card
+Paid successfully at SWIGGY                 
+Transaction ID : S53502976
+Reference No. : 209820092779
+Paid using Digital Debit Card</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: SWIGGY
+VPA: upiswiggy@icici
+Transaction ID: S54368113
+Reference Number: 209844770490</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Paytm Add Money
+From Account Number 918838819752
+Transaction ID : M3270322</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Tej bhan pan shop
+From Account Number 918838819752
+Transaction ID : M3286245</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Paytm Add Money
+From Account Number 918838819752
+Transaction ID : M6023047</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Tej bhan pan shop
+From Account Number 918838819752
+Transaction ID : M6053787</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: Roppen Transportation Service Pvt Ltd
+VPA: roppen.razorpay@hdfcbank
+Transaction ID: S99245038
+Reference Number: 210119659638</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Paytm Add Money
+From Account Number 918838819752
+Transaction ID : M4583136</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Paytm Add Money
+From Account Number 918838819752
+Transaction ID : M4613183</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Paytm Add Money
+From Account Number 918838819752
+Transaction ID : M2764133</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at Tej bhan pan shop
+From Account Number 918838819752
+Transaction ID : M2239818</t>
+  </si>
+  <si>
+    <t>Money Sent using UPI
+Sent to: Xiaomi Communications and Logistics India Private Limited
+VPA: mi.payu@hdfcbank
+Transaction ID: S51478387
+Reference Number: 210328683130</t>
+  </si>
+  <si>
+    <t>Paid using your Bank Account
+Paid successfully at NAVAS C K
+From Account Number 918838819752
+Transaction ID : M1073500</t>
+  </si>
+  <si>
+    <t>2178104485</t>
+  </si>
+  <si>
+    <t>2180489040</t>
+  </si>
+  <si>
+    <t>2180514087</t>
+  </si>
+  <si>
+    <t>209207361785</t>
+  </si>
+  <si>
+    <t>2180889738</t>
+  </si>
+  <si>
+    <t>2181765223</t>
+  </si>
+  <si>
+    <t>209266013362</t>
+  </si>
+  <si>
+    <t>209266084388</t>
+  </si>
+  <si>
+    <t>209233997070</t>
+  </si>
+  <si>
+    <t>2184285586</t>
+  </si>
+  <si>
+    <t>2184289649</t>
+  </si>
+  <si>
+    <t>209457225159</t>
+  </si>
+  <si>
+    <t>2188233956</t>
+  </si>
+  <si>
+    <t>209573064749</t>
+  </si>
+  <si>
+    <t>2190827131</t>
+  </si>
+  <si>
+    <t>2193250619</t>
+  </si>
+  <si>
+    <t>2193253732</t>
+  </si>
+  <si>
+    <t>2193322419</t>
+  </si>
+  <si>
+    <t>2194841035</t>
+  </si>
+  <si>
+    <t>209760330257</t>
+  </si>
+  <si>
+    <t>2196742685</t>
+  </si>
+  <si>
+    <t>209844770490</t>
+  </si>
+  <si>
+    <t>2200050988</t>
+  </si>
+  <si>
+    <t>2200058043</t>
+  </si>
+  <si>
+    <t>2201291527</t>
+  </si>
+  <si>
+    <t>2203938803</t>
+  </si>
+  <si>
+    <t>210119659638</t>
+  </si>
+  <si>
+    <t>2205725635</t>
+  </si>
+  <si>
+    <t>2205737680</t>
+  </si>
+  <si>
+    <t>2207692142</t>
+  </si>
+  <si>
+    <t>2210164482</t>
+  </si>
+  <si>
+    <t>210328683130</t>
+  </si>
+  <si>
+    <t>2212436632</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>72.66</t>
+  </si>
+  <si>
+    <t>32.66</t>
+  </si>
+  <si>
+    <t>3035.66</t>
+  </si>
+  <si>
+    <t>150.66</t>
+  </si>
+  <si>
+    <t>123.66</t>
+  </si>
+  <si>
+    <t>148.66</t>
+  </si>
+  <si>
+    <t>143.66</t>
+  </si>
+  <si>
+    <t>43.66</t>
+  </si>
+  <si>
+    <t>13.66</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>20.66</t>
+  </si>
+  <si>
+    <t>5.66</t>
+  </si>
+  <si>
+    <t>11.53</t>
+  </si>
+  <si>
+    <t>31.53</t>
+  </si>
+  <si>
+    <t>30.53</t>
+  </si>
+  <si>
+    <t>16.53</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>10.53</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>598.53</t>
+  </si>
+  <si>
+    <t>146.53</t>
+  </si>
+  <si>
+    <t>134.53</t>
+  </si>
+  <si>
+    <t>104.53</t>
+  </si>
+  <si>
+    <t>21.53</t>
+  </si>
+  <si>
+    <t>6.53</t>
+  </si>
+  <si>
+    <t>66.53</t>
+  </si>
+  <si>
+    <t>7.53</t>
+  </si>
+  <si>
+    <t>Interest Received
+Received for the period 01-03-2022 to 31-03-2022
+Transaction ID : M164450
+Earned on Savings account balance</t>
+  </si>
+  <si>
+    <t>34.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>01-04-2022</t>
+  </si>
+  <si>
+    <t>02-04-2022</t>
+  </si>
+  <si>
+    <t>03-04-2022</t>
+  </si>
+  <si>
+    <t>04-04-2022</t>
+  </si>
+  <si>
+    <t>05-04-2022</t>
+  </si>
+  <si>
+    <t>06-04-2022</t>
+  </si>
+  <si>
+    <t>07-04-2022</t>
+  </si>
+  <si>
+    <t>08-04-2022</t>
+  </si>
+  <si>
+    <t>09-04-2022</t>
+  </si>
+  <si>
+    <t>10-04-2022</t>
+  </si>
+  <si>
+    <t>11-04-2022</t>
+  </si>
+  <si>
+    <t>12-04-2022</t>
+  </si>
+  <si>
+    <t>13-04-2022</t>
+  </si>
+  <si>
+    <t>14-04-2022</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -186,14 +767,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -479,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -517,272 +1094,1913 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6">
+        <v>654651321</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7">
-        <v>26</v>
-      </c>
-      <c r="F2" s="9">
-        <v>8340.2199999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7">
-        <v>17</v>
-      </c>
-      <c r="F3" s="9">
-        <v>8323.2199999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8">
-        <v>28.66</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9">
-        <v>8351.8799999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7">
-        <v>60</v>
-      </c>
-      <c r="F5" s="9">
-        <v>8291.8799999999992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9">
-        <v>8276.8799999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7">
-        <v>269</v>
-      </c>
-      <c r="F7" s="9">
-        <v>8007.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F50" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180"/>
+      <c r="B180"/>
+      <c r="C180"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181"/>
+      <c r="B181"/>
+      <c r="C181"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+      <c r="B182"/>
+      <c r="C182"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183"/>
+      <c r="B183"/>
+      <c r="C183"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186"/>
+      <c r="B186"/>
+      <c r="C186"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="C187"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188"/>
+      <c r="B188"/>
+      <c r="C188"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="C189"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190"/>
+      <c r="B190"/>
+      <c r="C190"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191"/>
+      <c r="B191"/>
+      <c r="C191"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192"/>
+      <c r="B192"/>
+      <c r="C192"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193"/>
+      <c r="B193"/>
+      <c r="C193"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194"/>
+      <c r="B194"/>
+      <c r="C194"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195"/>
+      <c r="B195"/>
+      <c r="C195"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196"/>
+      <c r="B196"/>
+      <c r="C196"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197"/>
+      <c r="B197"/>
+      <c r="C197"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198"/>
+      <c r="B198"/>
+      <c r="C198"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199"/>
+      <c r="B199"/>
+      <c r="C199"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200"/>
+      <c r="B200"/>
+      <c r="C200"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201"/>
+      <c r="B201"/>
+      <c r="C201"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202"/>
+      <c r="B202"/>
+      <c r="C202"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203"/>
+      <c r="B203"/>
+      <c r="C203"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204"/>
+      <c r="B204"/>
+      <c r="C204"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205"/>
+      <c r="B205"/>
+      <c r="C205"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206"/>
+      <c r="B206"/>
+      <c r="C206"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207"/>
+      <c r="B207"/>
+      <c r="C207"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208"/>
+      <c r="B208"/>
+      <c r="C208"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209"/>
+      <c r="B209"/>
+      <c r="C209"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210"/>
+      <c r="B210"/>
+      <c r="C210"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211"/>
+      <c r="B211"/>
+      <c r="C211"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212"/>
+      <c r="B212"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213"/>
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214"/>
+      <c r="B214"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215"/>
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216"/>
+      <c r="B216"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217"/>
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218"/>
+      <c r="B218"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219"/>
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220"/>
+      <c r="B220"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221"/>
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222"/>
+      <c r="B222"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223"/>
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224"/>
+      <c r="B224"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225"/>
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226"/>
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227"/>
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228"/>
+      <c r="B228"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229"/>
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230"/>
+      <c r="B230"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231"/>
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232"/>
+      <c r="B232"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233"/>
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234"/>
+      <c r="B234"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235"/>
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236"/>
+      <c r="B236"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237"/>
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238"/>
+      <c r="B238"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239"/>
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240"/>
+      <c r="B240"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241"/>
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242"/>
+      <c r="B242"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
